--- a/data/trans_orig/Q4505-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q4505-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6C7CFF4-3F07-4F13-B3C6-98105A5E52DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E587302-212E-4444-8B4F-DFE512F904D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{10E8EBAC-7CB1-4B43-8029-DE94ED33DB8F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{40C83CED-B438-40E7-BE5D-811295A87C16}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -3119,7 +3119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE786705-7275-4E6D-8368-ACDC0576E814}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0971DFA-0734-4FAD-A38F-96A86DCA65F1}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5082,7 +5082,7 @@
         <v>712</v>
       </c>
       <c r="D40" s="7">
-        <v>724482</v>
+        <v>724483</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>284</v>
@@ -5643,7 +5643,7 @@
         <v>3211</v>
       </c>
       <c r="D51" s="7">
-        <v>3273646</v>
+        <v>3273647</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>107</v>
@@ -5706,7 +5706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2F065A-9059-4F84-8FAB-68D742F41D1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BC0410-6FB9-461B-856D-2EB802B13B8B}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6441,7 +6441,7 @@
         <v>571</v>
       </c>
       <c r="D16" s="7">
-        <v>612800</v>
+        <v>612799</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>446</v>
@@ -7002,7 +7002,7 @@
         <v>1850</v>
       </c>
       <c r="D27" s="7">
-        <v>1958308</v>
+        <v>1958307</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>107</v>
@@ -7684,7 +7684,7 @@
         <v>1322</v>
       </c>
       <c r="I40" s="7">
-        <v>1427845</v>
+        <v>1427846</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>601</v>
@@ -7888,7 +7888,7 @@
         <v>205</v>
       </c>
       <c r="I44" s="7">
-        <v>222828</v>
+        <v>222829</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>626</v>
@@ -7975,7 +7975,7 @@
         <v>177</v>
       </c>
       <c r="D46" s="7">
-        <v>185917</v>
+        <v>185918</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>635</v>
@@ -8041,7 +8041,7 @@
         <v>44</v>
       </c>
       <c r="I47" s="7">
-        <v>47151</v>
+        <v>47152</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>264</v>
@@ -8230,7 +8230,7 @@
         <v>3195</v>
       </c>
       <c r="D51" s="7">
-        <v>3413166</v>
+        <v>3413167</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>107</v>
@@ -8245,7 +8245,7 @@
         <v>3278</v>
       </c>
       <c r="I51" s="7">
-        <v>3535758</v>
+        <v>3535759</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>107</v>
@@ -8293,7 +8293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D69F35-40EF-4E88-AF18-0FCB8084D26B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB8B0CD-EDD6-4A6C-88AF-987FF19CAA94}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8429,7 +8429,7 @@
         <v>316</v>
       </c>
       <c r="I4" s="7">
-        <v>362107</v>
+        <v>362106</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>664</v>
@@ -8990,7 +8990,7 @@
         <v>890</v>
       </c>
       <c r="I15" s="7">
-        <v>992248</v>
+        <v>992247</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>107</v>
@@ -10358,7 +10358,7 @@
         <v>376</v>
       </c>
       <c r="D42" s="7">
-        <v>389326</v>
+        <v>389325</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>850</v>
@@ -10817,7 +10817,7 @@
         <v>3201</v>
       </c>
       <c r="D51" s="7">
-        <v>3363416</v>
+        <v>3363415</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>107</v>
